--- a/추가피처데이터/투자자별매매동향(수급)/329180.xlsx
+++ b/추가피처데이터/투자자별매매동향(수급)/329180.xlsx
@@ -1595,43 +1595,43 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.3515625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="32" max="32" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="33" max="33" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="34" max="34" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -1863,94 +1863,94 @@
         <v>18</v>
       </c>
       <c r="B6" s="5">
-        <v>1737</v>
+        <v>200435</v>
       </c>
       <c r="C6" s="7">
-        <v>1484</v>
+        <v>171328</v>
       </c>
       <c r="D6" s="9">
-        <v>253</v>
+        <v>29107</v>
       </c>
       <c r="E6" s="11">
-        <v>1133</v>
+        <v>130208</v>
       </c>
       <c r="F6" s="13">
-        <v>1664</v>
+        <v>192004</v>
       </c>
       <c r="G6" s="15">
-        <v>-531</v>
+        <v>-61795</v>
       </c>
       <c r="H6" s="17">
-        <v>710</v>
+        <v>82005</v>
       </c>
       <c r="I6" s="19">
-        <v>424</v>
+        <v>48386</v>
       </c>
       <c r="J6" s="21">
-        <v>286</v>
+        <v>33620</v>
       </c>
       <c r="K6" s="23">
-        <v>154</v>
+        <v>17778</v>
       </c>
       <c r="L6" s="25">
+        <v>15146</v>
+      </c>
+      <c r="M6" s="27">
+        <v>2632</v>
+      </c>
+      <c r="N6" s="29">
+        <v>9919</v>
+      </c>
+      <c r="O6" s="31">
+        <v>4493</v>
+      </c>
+      <c r="P6" s="33">
+        <v>5426</v>
+      </c>
+      <c r="Q6" s="35">
+        <v>16797</v>
+      </c>
+      <c r="R6" s="37">
+        <v>13082</v>
+      </c>
+      <c r="S6" s="39">
+        <v>3715</v>
+      </c>
+      <c r="T6" s="41">
+        <v>99</v>
+      </c>
+      <c r="U6" s="43">
+        <v>15</v>
+      </c>
+      <c r="V6" s="45">
+        <v>84</v>
+      </c>
+      <c r="W6" s="47">
+        <v>144</v>
+      </c>
+      <c r="X6" s="49">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="51">
         <v>132</v>
       </c>
-      <c r="M6" s="27">
-        <v>22</v>
-      </c>
-      <c r="N6" s="29">
-        <v>85</v>
-      </c>
-      <c r="O6" s="31">
-        <v>39</v>
-      </c>
-      <c r="P6" s="33">
-        <v>46</v>
-      </c>
-      <c r="Q6" s="35">
-        <v>145</v>
-      </c>
-      <c r="R6" s="37">
-        <v>115</v>
-      </c>
-      <c r="S6" s="39">
-        <v>29</v>
-      </c>
-      <c r="T6" s="41">
-        <v>1</v>
-      </c>
-      <c r="U6" s="43">
-        <v>0</v>
-      </c>
-      <c r="V6" s="45">
-        <v>1</v>
-      </c>
-      <c r="W6" s="47">
-        <v>1</v>
-      </c>
-      <c r="X6" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="51">
-        <v>1</v>
-      </c>
       <c r="Z6" s="53">
-        <v>264</v>
+        <v>30365</v>
       </c>
       <c r="AA6" s="55">
-        <v>99</v>
+        <v>11364</v>
       </c>
       <c r="AB6" s="57">
-        <v>165</v>
+        <v>19001</v>
       </c>
       <c r="AC6" s="59">
-        <v>60</v>
+        <v>6903</v>
       </c>
       <c r="AD6" s="61">
-        <v>37</v>
+        <v>4273</v>
       </c>
       <c r="AE6" s="63">
-        <v>22</v>
+        <v>2630</v>
       </c>
       <c r="AF6" s="65">
         <v>0</v>
@@ -1962,16 +1962,16 @@
         <v>0</v>
       </c>
       <c r="AI6" s="71">
-        <v>14</v>
+        <v>1554</v>
       </c>
       <c r="AJ6" s="73">
-        <v>21</v>
+        <v>2486</v>
       </c>
       <c r="AK6" s="75">
-        <v>-8</v>
+        <v>-931</v>
       </c>
       <c r="AL6" s="77">
-        <v>3593</v>
+        <v>414203</v>
       </c>
     </row>
     <row r="7">
@@ -1979,94 +1979,94 @@
         <v>19</v>
       </c>
       <c r="B7" s="5">
-        <v>1602</v>
+        <v>168599</v>
       </c>
       <c r="C7" s="7">
-        <v>1077</v>
+        <v>113456</v>
       </c>
       <c r="D7" s="9">
-        <v>525</v>
+        <v>55143</v>
       </c>
       <c r="E7" s="11">
-        <v>1611</v>
+        <v>168013</v>
       </c>
       <c r="F7" s="13">
-        <v>2296</v>
+        <v>242068</v>
       </c>
       <c r="G7" s="15">
-        <v>-685</v>
+        <v>-74055</v>
       </c>
       <c r="H7" s="17">
-        <v>744</v>
+        <v>79752</v>
       </c>
       <c r="I7" s="19">
-        <v>575</v>
+        <v>59833</v>
       </c>
       <c r="J7" s="21">
-        <v>170</v>
+        <v>19919</v>
       </c>
       <c r="K7" s="23">
-        <v>128</v>
+        <v>13490</v>
       </c>
       <c r="L7" s="25">
-        <v>148</v>
+        <v>15465</v>
       </c>
       <c r="M7" s="27">
-        <v>-20</v>
+        <v>-1975</v>
       </c>
       <c r="N7" s="29">
-        <v>66</v>
+        <v>7092</v>
       </c>
       <c r="O7" s="31">
-        <v>37</v>
+        <v>3908</v>
       </c>
       <c r="P7" s="33">
-        <v>29</v>
+        <v>3185</v>
       </c>
       <c r="Q7" s="35">
-        <v>125</v>
+        <v>13383</v>
       </c>
       <c r="R7" s="37">
-        <v>134</v>
+        <v>14207</v>
       </c>
       <c r="S7" s="39">
-        <v>-9</v>
+        <v>-823</v>
       </c>
       <c r="T7" s="41">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="U7" s="43">
-        <v>4</v>
+        <v>458</v>
       </c>
       <c r="V7" s="45">
-        <v>-3</v>
+        <v>-354</v>
       </c>
       <c r="W7" s="47">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="X7" s="49">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="Y7" s="51">
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="Z7" s="53">
-        <v>345</v>
+        <v>37140</v>
       </c>
       <c r="AA7" s="55">
-        <v>170</v>
+        <v>17366</v>
       </c>
       <c r="AB7" s="57">
-        <v>175</v>
+        <v>19774</v>
       </c>
       <c r="AC7" s="59">
-        <v>79</v>
+        <v>8499</v>
       </c>
       <c r="AD7" s="61">
-        <v>81</v>
+        <v>8344</v>
       </c>
       <c r="AE7" s="63">
-        <v>-2</v>
+        <v>154</v>
       </c>
       <c r="AF7" s="65">
         <v>0</v>
@@ -2078,16 +2078,16 @@
         <v>0</v>
       </c>
       <c r="AI7" s="71">
-        <v>18</v>
+        <v>1896</v>
       </c>
       <c r="AJ7" s="73">
-        <v>27</v>
+        <v>2902</v>
       </c>
       <c r="AK7" s="75">
-        <v>-10</v>
+        <v>-1007</v>
       </c>
       <c r="AL7" s="77">
-        <v>3975</v>
+        <v>418260</v>
       </c>
     </row>
     <row r="8">
@@ -2095,94 +2095,94 @@
         <v>20</v>
       </c>
       <c r="B8" s="5">
-        <v>1514</v>
+        <v>148928</v>
       </c>
       <c r="C8" s="7">
-        <v>2078</v>
+        <v>204514</v>
       </c>
       <c r="D8" s="9">
-        <v>-564</v>
+        <v>-55585</v>
       </c>
       <c r="E8" s="11">
-        <v>3107</v>
+        <v>307404</v>
       </c>
       <c r="F8" s="13">
-        <v>2396</v>
+        <v>236220</v>
       </c>
       <c r="G8" s="15">
-        <v>711</v>
+        <v>71184</v>
       </c>
       <c r="H8" s="17">
-        <v>514</v>
+        <v>50625</v>
       </c>
       <c r="I8" s="19">
-        <v>683</v>
+        <v>68454</v>
       </c>
       <c r="J8" s="21">
-        <v>-170</v>
+        <v>-17830</v>
       </c>
       <c r="K8" s="23">
-        <v>158</v>
+        <v>15547</v>
       </c>
       <c r="L8" s="25">
-        <v>144</v>
+        <v>14176</v>
       </c>
       <c r="M8" s="27">
-        <v>14</v>
+        <v>1370</v>
       </c>
       <c r="N8" s="29">
-        <v>30</v>
+        <v>2985</v>
       </c>
       <c r="O8" s="31">
-        <v>66</v>
+        <v>6545</v>
       </c>
       <c r="P8" s="33">
-        <v>-35</v>
+        <v>-3560</v>
       </c>
       <c r="Q8" s="35">
-        <v>107</v>
+        <v>10632</v>
       </c>
       <c r="R8" s="37">
-        <v>111</v>
+        <v>11122</v>
       </c>
       <c r="S8" s="39">
-        <v>-4</v>
+        <v>-490</v>
       </c>
       <c r="T8" s="41">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="U8" s="43">
-        <v>5</v>
+        <v>484</v>
       </c>
       <c r="V8" s="45">
-        <v>-4</v>
+        <v>-410</v>
       </c>
       <c r="W8" s="47">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="X8" s="49">
-        <v>2</v>
+        <v>235</v>
       </c>
       <c r="Y8" s="51">
-        <v>-1</v>
+        <v>-118</v>
       </c>
       <c r="Z8" s="53">
-        <v>160</v>
+        <v>15700</v>
       </c>
       <c r="AA8" s="55">
-        <v>300</v>
+        <v>30249</v>
       </c>
       <c r="AB8" s="57">
-        <v>-140</v>
+        <v>-14549</v>
       </c>
       <c r="AC8" s="59">
-        <v>57</v>
+        <v>5569</v>
       </c>
       <c r="AD8" s="61">
-        <v>56</v>
+        <v>5642</v>
       </c>
       <c r="AE8" s="63">
-        <v>1</v>
+        <v>-73</v>
       </c>
       <c r="AF8" s="65">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>0</v>
       </c>
       <c r="AI8" s="71">
-        <v>56</v>
+        <v>5487</v>
       </c>
       <c r="AJ8" s="73">
-        <v>33</v>
+        <v>3256</v>
       </c>
       <c r="AK8" s="75">
-        <v>23</v>
+        <v>2231</v>
       </c>
       <c r="AL8" s="77">
-        <v>5190</v>
+        <v>512443</v>
       </c>
     </row>
     <row r="9">
@@ -2211,94 +2211,94 @@
         <v>21</v>
       </c>
       <c r="B9" s="5">
-        <v>1190</v>
+        <v>130862</v>
       </c>
       <c r="C9" s="7">
-        <v>939</v>
+        <v>102866</v>
       </c>
       <c r="D9" s="9">
-        <v>251</v>
+        <v>27996</v>
       </c>
       <c r="E9" s="11">
-        <v>1749</v>
+        <v>190525</v>
       </c>
       <c r="F9" s="13">
-        <v>1607</v>
+        <v>176394</v>
       </c>
       <c r="G9" s="15">
-        <v>142</v>
+        <v>14130</v>
       </c>
       <c r="H9" s="17">
-        <v>483</v>
+        <v>53086</v>
       </c>
       <c r="I9" s="19">
-        <v>882</v>
+        <v>95879</v>
       </c>
       <c r="J9" s="21">
-        <v>-399</v>
+        <v>-42794</v>
       </c>
       <c r="K9" s="23">
-        <v>127</v>
+        <v>13921</v>
       </c>
       <c r="L9" s="25">
-        <v>199</v>
+        <v>21761</v>
       </c>
       <c r="M9" s="27">
-        <v>-72</v>
+        <v>-7841</v>
       </c>
       <c r="N9" s="29">
-        <v>41</v>
+        <v>4479</v>
       </c>
       <c r="O9" s="31">
-        <v>67</v>
+        <v>7302</v>
       </c>
       <c r="P9" s="33">
-        <v>-27</v>
+        <v>-2823</v>
       </c>
       <c r="Q9" s="35">
-        <v>83</v>
+        <v>9119</v>
       </c>
       <c r="R9" s="37">
-        <v>108</v>
+        <v>11665</v>
       </c>
       <c r="S9" s="39">
-        <v>-25</v>
+        <v>-2546</v>
       </c>
       <c r="T9" s="41">
-        <v>4</v>
+        <v>491</v>
       </c>
       <c r="U9" s="43">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="V9" s="45">
-        <v>3</v>
+        <v>341</v>
       </c>
       <c r="W9" s="47">
-        <v>3</v>
+        <v>336</v>
       </c>
       <c r="X9" s="49">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="Y9" s="51">
-        <v>2</v>
+        <v>219</v>
       </c>
       <c r="Z9" s="53">
-        <v>203</v>
+        <v>22412</v>
       </c>
       <c r="AA9" s="55">
-        <v>414</v>
+        <v>45011</v>
       </c>
       <c r="AB9" s="57">
-        <v>-211</v>
+        <v>-22599</v>
       </c>
       <c r="AC9" s="59">
-        <v>21</v>
+        <v>2329</v>
       </c>
       <c r="AD9" s="61">
-        <v>91</v>
+        <v>9873</v>
       </c>
       <c r="AE9" s="63">
-        <v>-70</v>
+        <v>-7544</v>
       </c>
       <c r="AF9" s="65">
         <v>0</v>
@@ -2310,16 +2310,16 @@
         <v>0</v>
       </c>
       <c r="AI9" s="71">
-        <v>33</v>
+        <v>3555</v>
       </c>
       <c r="AJ9" s="73">
-        <v>26</v>
+        <v>2887</v>
       </c>
       <c r="AK9" s="75">
-        <v>6</v>
+        <v>667</v>
       </c>
       <c r="AL9" s="77">
-        <v>3454</v>
+        <v>378027</v>
       </c>
     </row>
     <row r="10">
@@ -2327,94 +2327,94 @@
         <v>22</v>
       </c>
       <c r="B10" s="5">
-        <v>915</v>
+        <v>100467</v>
       </c>
       <c r="C10" s="7">
-        <v>974</v>
+        <v>106625</v>
       </c>
       <c r="D10" s="9">
-        <v>-58</v>
+        <v>-6158</v>
       </c>
       <c r="E10" s="11">
-        <v>2206</v>
+        <v>240336</v>
       </c>
       <c r="F10" s="13">
-        <v>1779</v>
+        <v>195156</v>
       </c>
       <c r="G10" s="15">
-        <v>428</v>
+        <v>45180</v>
       </c>
       <c r="H10" s="17">
-        <v>637</v>
+        <v>70303</v>
       </c>
       <c r="I10" s="19">
-        <v>1020</v>
+        <v>110782</v>
       </c>
       <c r="J10" s="21">
-        <v>-383</v>
+        <v>-40479</v>
       </c>
       <c r="K10" s="23">
-        <v>161</v>
+        <v>17735</v>
       </c>
       <c r="L10" s="25">
-        <v>163</v>
+        <v>17800</v>
       </c>
       <c r="M10" s="27">
-        <v>-1</v>
+        <v>-65</v>
       </c>
       <c r="N10" s="29">
-        <v>50</v>
+        <v>5530</v>
       </c>
       <c r="O10" s="31">
-        <v>93</v>
+        <v>10020</v>
       </c>
       <c r="P10" s="33">
-        <v>-43</v>
+        <v>-4490</v>
       </c>
       <c r="Q10" s="35">
-        <v>135</v>
+        <v>14864</v>
       </c>
       <c r="R10" s="37">
-        <v>181</v>
+        <v>19740</v>
       </c>
       <c r="S10" s="39">
-        <v>-47</v>
+        <v>-4877</v>
       </c>
       <c r="T10" s="41">
-        <v>3</v>
+        <v>342</v>
       </c>
       <c r="U10" s="43">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="V10" s="45">
-        <v>3</v>
+        <v>302</v>
       </c>
       <c r="W10" s="47">
-        <v>11</v>
+        <v>1206</v>
       </c>
       <c r="X10" s="49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y10" s="51">
-        <v>11</v>
+        <v>1201</v>
       </c>
       <c r="Z10" s="53">
-        <v>195</v>
+        <v>21581</v>
       </c>
       <c r="AA10" s="55">
-        <v>472</v>
+        <v>51086</v>
       </c>
       <c r="AB10" s="57">
-        <v>-278</v>
+        <v>-29504</v>
       </c>
       <c r="AC10" s="59">
-        <v>83</v>
+        <v>9046</v>
       </c>
       <c r="AD10" s="61">
-        <v>111</v>
+        <v>12091</v>
       </c>
       <c r="AE10" s="63">
-        <v>-28</v>
+        <v>-3044</v>
       </c>
       <c r="AF10" s="65">
         <v>0</v>
@@ -2426,16 +2426,16 @@
         <v>0</v>
       </c>
       <c r="AI10" s="71">
-        <v>28</v>
+        <v>2992</v>
       </c>
       <c r="AJ10" s="73">
-        <v>14</v>
+        <v>1535</v>
       </c>
       <c r="AK10" s="75">
-        <v>14</v>
+        <v>1457</v>
       </c>
       <c r="AL10" s="77">
-        <v>3787</v>
+        <v>414098</v>
       </c>
     </row>
     <row r="11">
@@ -2443,94 +2443,94 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <v>868</v>
+        <v>103020</v>
       </c>
       <c r="C11" s="7">
-        <v>771</v>
+        <v>91197</v>
       </c>
       <c r="D11" s="9">
-        <v>97</v>
+        <v>11824</v>
       </c>
       <c r="E11" s="11">
-        <v>1155</v>
+        <v>136596</v>
       </c>
       <c r="F11" s="13">
-        <v>1593</v>
+        <v>189626</v>
       </c>
       <c r="G11" s="15">
-        <v>-438</v>
+        <v>-53030</v>
       </c>
       <c r="H11" s="17">
-        <v>772</v>
+        <v>92121</v>
       </c>
       <c r="I11" s="19">
-        <v>424</v>
+        <v>50052</v>
       </c>
       <c r="J11" s="21">
-        <v>348</v>
+        <v>42069</v>
       </c>
       <c r="K11" s="23">
-        <v>145</v>
+        <v>17252</v>
       </c>
       <c r="L11" s="25">
-        <v>125</v>
+        <v>14754</v>
       </c>
       <c r="M11" s="27">
-        <v>20</v>
+        <v>2498</v>
       </c>
       <c r="N11" s="29">
-        <v>72</v>
+        <v>8592</v>
       </c>
       <c r="O11" s="31">
-        <v>34</v>
+        <v>4079</v>
       </c>
       <c r="P11" s="33">
-        <v>38</v>
+        <v>4513</v>
       </c>
       <c r="Q11" s="35">
-        <v>173</v>
+        <v>20516</v>
       </c>
       <c r="R11" s="37">
-        <v>50</v>
+        <v>5845</v>
       </c>
       <c r="S11" s="39">
-        <v>123</v>
+        <v>14672</v>
       </c>
       <c r="T11" s="41">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="U11" s="43">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V11" s="45">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="W11" s="47">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="X11" s="49">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="51">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="Z11" s="53">
-        <v>303</v>
+        <v>36358</v>
       </c>
       <c r="AA11" s="55">
-        <v>125</v>
+        <v>14917</v>
       </c>
       <c r="AB11" s="57">
-        <v>178</v>
+        <v>21441</v>
       </c>
       <c r="AC11" s="59">
-        <v>77</v>
+        <v>9176</v>
       </c>
       <c r="AD11" s="61">
-        <v>89</v>
+        <v>10358</v>
       </c>
       <c r="AE11" s="63">
-        <v>-12</v>
+        <v>-1182</v>
       </c>
       <c r="AF11" s="65">
         <v>0</v>
@@ -2542,16 +2542,16 @@
         <v>0</v>
       </c>
       <c r="AI11" s="71">
-        <v>27</v>
+        <v>3157</v>
       </c>
       <c r="AJ11" s="73">
-        <v>34</v>
+        <v>4019</v>
       </c>
       <c r="AK11" s="75">
-        <v>-7</v>
+        <v>-862</v>
       </c>
       <c r="AL11" s="77">
-        <v>2822</v>
+        <v>334893</v>
       </c>
     </row>
     <row r="12">
@@ -2559,94 +2559,94 @@
         <v>24</v>
       </c>
       <c r="B12" s="5">
-        <v>1317</v>
+        <v>150967</v>
       </c>
       <c r="C12" s="7">
-        <v>867</v>
+        <v>99087</v>
       </c>
       <c r="D12" s="9">
-        <v>449</v>
+        <v>51880</v>
       </c>
       <c r="E12" s="11">
-        <v>1825</v>
+        <v>207842</v>
       </c>
       <c r="F12" s="13">
-        <v>2371</v>
+        <v>271347</v>
       </c>
       <c r="G12" s="15">
-        <v>-546</v>
+        <v>-63505</v>
       </c>
       <c r="H12" s="17">
-        <v>664</v>
+        <v>76096</v>
       </c>
       <c r="I12" s="19">
-        <v>571</v>
+        <v>64900</v>
       </c>
       <c r="J12" s="21">
-        <v>93</v>
+        <v>11196</v>
       </c>
       <c r="K12" s="23">
-        <v>153</v>
+        <v>17497</v>
       </c>
       <c r="L12" s="25">
-        <v>132</v>
+        <v>14916</v>
       </c>
       <c r="M12" s="27">
-        <v>21</v>
+        <v>2581</v>
       </c>
       <c r="N12" s="29">
-        <v>50</v>
+        <v>5764</v>
       </c>
       <c r="O12" s="31">
-        <v>59</v>
+        <v>6753</v>
       </c>
       <c r="P12" s="33">
-        <v>-9</v>
+        <v>-989</v>
       </c>
       <c r="Q12" s="35">
-        <v>184</v>
+        <v>21062</v>
       </c>
       <c r="R12" s="37">
-        <v>72</v>
+        <v>8106</v>
       </c>
       <c r="S12" s="39">
-        <v>112</v>
+        <v>12956</v>
       </c>
       <c r="T12" s="41">
-        <v>2</v>
+        <v>267</v>
       </c>
       <c r="U12" s="43">
-        <v>2</v>
+        <v>232</v>
       </c>
       <c r="V12" s="45">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="W12" s="47">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="X12" s="49">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="Y12" s="51">
-        <v>0</v>
+        <v>-43</v>
       </c>
       <c r="Z12" s="53">
-        <v>226</v>
+        <v>25944</v>
       </c>
       <c r="AA12" s="55">
-        <v>227</v>
+        <v>25936</v>
       </c>
       <c r="AB12" s="57">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AC12" s="59">
-        <v>48</v>
+        <v>5539</v>
       </c>
       <c r="AD12" s="61">
-        <v>78</v>
+        <v>8891</v>
       </c>
       <c r="AE12" s="63">
-        <v>-30</v>
+        <v>-3352</v>
       </c>
       <c r="AF12" s="65">
         <v>0</v>
@@ -2658,16 +2658,16 @@
         <v>0</v>
       </c>
       <c r="AI12" s="71">
-        <v>15</v>
+        <v>1664</v>
       </c>
       <c r="AJ12" s="73">
-        <v>11</v>
+        <v>1235</v>
       </c>
       <c r="AK12" s="75">
-        <v>4</v>
+        <v>429</v>
       </c>
       <c r="AL12" s="77">
-        <v>3820</v>
+        <v>436569</v>
       </c>
     </row>
     <row r="13">
@@ -2675,94 +2675,94 @@
         <v>25</v>
       </c>
       <c r="B13" s="5">
-        <v>1280</v>
+        <v>142530</v>
       </c>
       <c r="C13" s="7">
-        <v>1248</v>
+        <v>141467</v>
       </c>
       <c r="D13" s="9">
-        <v>32</v>
+        <v>1063</v>
       </c>
       <c r="E13" s="11">
-        <v>2938</v>
+        <v>330011</v>
       </c>
       <c r="F13" s="13">
-        <v>2745</v>
+        <v>308729</v>
       </c>
       <c r="G13" s="15">
-        <v>194</v>
+        <v>21282</v>
       </c>
       <c r="H13" s="17">
-        <v>644</v>
+        <v>73725</v>
       </c>
       <c r="I13" s="19">
-        <v>868</v>
+        <v>95862</v>
       </c>
       <c r="J13" s="21">
-        <v>-224</v>
+        <v>-22137</v>
       </c>
       <c r="K13" s="23">
-        <v>157</v>
+        <v>17837</v>
       </c>
       <c r="L13" s="25">
-        <v>184</v>
+        <v>20738</v>
       </c>
       <c r="M13" s="27">
-        <v>-27</v>
+        <v>-2900</v>
       </c>
       <c r="N13" s="29">
-        <v>62</v>
+        <v>7141</v>
       </c>
       <c r="O13" s="31">
-        <v>64</v>
+        <v>7025</v>
       </c>
       <c r="P13" s="33">
-        <v>-2</v>
+        <v>115</v>
       </c>
       <c r="Q13" s="35">
-        <v>116</v>
+        <v>13624</v>
       </c>
       <c r="R13" s="37">
-        <v>162</v>
+        <v>17965</v>
       </c>
       <c r="S13" s="39">
-        <v>-46</v>
+        <v>-4342</v>
       </c>
       <c r="T13" s="41">
-        <v>2</v>
+        <v>199</v>
       </c>
       <c r="U13" s="43">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="V13" s="45">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="W13" s="47">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X13" s="49">
-        <v>2</v>
+        <v>186</v>
       </c>
       <c r="Y13" s="51">
-        <v>-2</v>
+        <v>-177</v>
       </c>
       <c r="Z13" s="53">
-        <v>199</v>
+        <v>22655</v>
       </c>
       <c r="AA13" s="55">
-        <v>302</v>
+        <v>32663</v>
       </c>
       <c r="AB13" s="57">
-        <v>-104</v>
+        <v>-10008</v>
       </c>
       <c r="AC13" s="59">
-        <v>108</v>
+        <v>12260</v>
       </c>
       <c r="AD13" s="61">
-        <v>152</v>
+        <v>17076</v>
       </c>
       <c r="AE13" s="63">
-        <v>-44</v>
+        <v>-4816</v>
       </c>
       <c r="AF13" s="65">
         <v>0</v>
@@ -2774,16 +2774,16 @@
         <v>0</v>
       </c>
       <c r="AI13" s="71">
-        <v>16</v>
+        <v>1791</v>
       </c>
       <c r="AJ13" s="73">
-        <v>17</v>
+        <v>1999</v>
       </c>
       <c r="AK13" s="75">
-        <v>-1</v>
+        <v>-208</v>
       </c>
       <c r="AL13" s="77">
-        <v>4878</v>
+        <v>548058</v>
       </c>
     </row>
     <row r="14">
@@ -2791,94 +2791,94 @@
         <v>26</v>
       </c>
       <c r="B14" s="5">
-        <v>1603</v>
+        <v>195418</v>
       </c>
       <c r="C14" s="7">
-        <v>1666</v>
+        <v>205091</v>
       </c>
       <c r="D14" s="9">
-        <v>-63</v>
+        <v>-9673</v>
       </c>
       <c r="E14" s="11">
-        <v>3260</v>
+        <v>402479</v>
       </c>
       <c r="F14" s="13">
-        <v>2984</v>
+        <v>366071</v>
       </c>
       <c r="G14" s="15">
-        <v>276</v>
+        <v>36409</v>
       </c>
       <c r="H14" s="17">
-        <v>1106</v>
+        <v>138520</v>
       </c>
       <c r="I14" s="19">
-        <v>1326</v>
+        <v>166073</v>
       </c>
       <c r="J14" s="21">
-        <v>-220</v>
+        <v>-27553</v>
       </c>
       <c r="K14" s="23">
-        <v>205</v>
+        <v>25525</v>
       </c>
       <c r="L14" s="25">
-        <v>236</v>
+        <v>29456</v>
       </c>
       <c r="M14" s="27">
-        <v>-31</v>
+        <v>-3930</v>
       </c>
       <c r="N14" s="29">
-        <v>118</v>
+        <v>15002</v>
       </c>
       <c r="O14" s="31">
-        <v>79</v>
+        <v>9788</v>
       </c>
       <c r="P14" s="33">
-        <v>39</v>
+        <v>5214</v>
       </c>
       <c r="Q14" s="35">
-        <v>254</v>
+        <v>32352</v>
       </c>
       <c r="R14" s="37">
-        <v>236</v>
+        <v>29299</v>
       </c>
       <c r="S14" s="39">
-        <v>19</v>
+        <v>3053</v>
       </c>
       <c r="T14" s="41">
-        <v>4</v>
+        <v>472</v>
       </c>
       <c r="U14" s="43">
-        <v>4</v>
+        <v>507</v>
       </c>
       <c r="V14" s="45">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="W14" s="47">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="X14" s="49">
-        <v>2</v>
+        <v>289</v>
       </c>
       <c r="Y14" s="51">
-        <v>-2</v>
+        <v>-190</v>
       </c>
       <c r="Z14" s="53">
-        <v>348</v>
+        <v>43275</v>
       </c>
       <c r="AA14" s="55">
-        <v>533</v>
+        <v>66596</v>
       </c>
       <c r="AB14" s="57">
-        <v>-185</v>
+        <v>-23321</v>
       </c>
       <c r="AC14" s="59">
-        <v>176</v>
+        <v>21793</v>
       </c>
       <c r="AD14" s="61">
-        <v>236</v>
+        <v>30136</v>
       </c>
       <c r="AE14" s="63">
-        <v>-60</v>
+        <v>-8344</v>
       </c>
       <c r="AF14" s="65">
         <v>0</v>
@@ -2890,16 +2890,16 @@
         <v>0</v>
       </c>
       <c r="AI14" s="71">
-        <v>43</v>
+        <v>5380</v>
       </c>
       <c r="AJ14" s="73">
-        <v>36</v>
+        <v>4562</v>
       </c>
       <c r="AK14" s="75">
-        <v>7</v>
+        <v>818</v>
       </c>
       <c r="AL14" s="77">
-        <v>6012</v>
+        <v>741797</v>
       </c>
     </row>
     <row r="15">
@@ -2907,94 +2907,94 @@
         <v>27</v>
       </c>
       <c r="B15" s="5">
-        <v>1278</v>
+        <v>178055</v>
       </c>
       <c r="C15" s="7">
-        <v>1279</v>
+        <v>178025</v>
       </c>
       <c r="D15" s="9">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="E15" s="11">
-        <v>2832</v>
+        <v>391500</v>
       </c>
       <c r="F15" s="13">
-        <v>2983</v>
+        <v>413770</v>
       </c>
       <c r="G15" s="15">
-        <v>-151</v>
+        <v>-22269</v>
       </c>
       <c r="H15" s="17">
-        <v>1205</v>
+        <v>168377</v>
       </c>
       <c r="I15" s="19">
-        <v>1056</v>
+        <v>146776</v>
       </c>
       <c r="J15" s="21">
-        <v>149</v>
+        <v>21601</v>
       </c>
       <c r="K15" s="23">
-        <v>285</v>
+        <v>39826</v>
       </c>
       <c r="L15" s="25">
-        <v>296</v>
+        <v>41390</v>
       </c>
       <c r="M15" s="27">
-        <v>-11</v>
+        <v>-1564</v>
       </c>
       <c r="N15" s="29">
-        <v>108</v>
+        <v>15382</v>
       </c>
       <c r="O15" s="31">
-        <v>106</v>
+        <v>14753</v>
       </c>
       <c r="P15" s="33">
-        <v>2</v>
+        <v>628</v>
       </c>
       <c r="Q15" s="35">
+        <v>28268</v>
+      </c>
+      <c r="R15" s="37">
+        <v>24249</v>
+      </c>
+      <c r="S15" s="39">
+        <v>4018</v>
+      </c>
+      <c r="T15" s="41">
+        <v>1440</v>
+      </c>
+      <c r="U15" s="43">
         <v>201</v>
       </c>
-      <c r="R15" s="37">
-        <v>176</v>
-      </c>
-      <c r="S15" s="39">
-        <v>25</v>
-      </c>
-      <c r="T15" s="41">
-        <v>10</v>
-      </c>
-      <c r="U15" s="43">
-        <v>2</v>
-      </c>
       <c r="V15" s="45">
-        <v>9</v>
+        <v>1239</v>
       </c>
       <c r="W15" s="47">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="X15" s="49">
-        <v>2</v>
+        <v>251</v>
       </c>
       <c r="Y15" s="51">
-        <v>-1</v>
+        <v>-82</v>
       </c>
       <c r="Z15" s="53">
-        <v>486</v>
+        <v>67804</v>
       </c>
       <c r="AA15" s="55">
-        <v>272</v>
+        <v>37486</v>
       </c>
       <c r="AB15" s="57">
-        <v>213</v>
+        <v>30318</v>
       </c>
       <c r="AC15" s="59">
-        <v>113</v>
+        <v>15488</v>
       </c>
       <c r="AD15" s="61">
-        <v>203</v>
+        <v>28444</v>
       </c>
       <c r="AE15" s="63">
-        <v>-90</v>
+        <v>-12956</v>
       </c>
       <c r="AF15" s="65">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="AI15" s="71">
-        <v>30</v>
+        <v>4262</v>
       </c>
       <c r="AJ15" s="73">
-        <v>26</v>
+        <v>3625</v>
       </c>
       <c r="AK15" s="75">
-        <v>4</v>
+        <v>638</v>
       </c>
       <c r="AL15" s="77">
-        <v>5345</v>
+        <v>742195</v>
       </c>
     </row>
     <row r="16">
@@ -3023,94 +3023,94 @@
         <v>28</v>
       </c>
       <c r="B16" s="5">
-        <v>1075</v>
+        <v>133209</v>
       </c>
       <c r="C16" s="7">
-        <v>919</v>
+        <v>114072</v>
       </c>
       <c r="D16" s="9">
-        <v>156</v>
+        <v>19137</v>
       </c>
       <c r="E16" s="11">
-        <v>2848</v>
+        <v>352248</v>
       </c>
       <c r="F16" s="13">
-        <v>2511</v>
+        <v>311514</v>
       </c>
       <c r="G16" s="15">
-        <v>337</v>
+        <v>40734</v>
       </c>
       <c r="H16" s="17">
-        <v>734</v>
+        <v>91897</v>
       </c>
       <c r="I16" s="19">
-        <v>1233</v>
+        <v>152351</v>
       </c>
       <c r="J16" s="21">
-        <v>-499</v>
+        <v>-60454</v>
       </c>
       <c r="K16" s="23">
-        <v>160</v>
+        <v>20056</v>
       </c>
       <c r="L16" s="25">
-        <v>164</v>
+        <v>20278</v>
       </c>
       <c r="M16" s="27">
-        <v>-4</v>
+        <v>-223</v>
       </c>
       <c r="N16" s="29">
-        <v>55</v>
+        <v>6841</v>
       </c>
       <c r="O16" s="31">
-        <v>106</v>
+        <v>13144</v>
       </c>
       <c r="P16" s="33">
-        <v>-50</v>
+        <v>-6303</v>
       </c>
       <c r="Q16" s="35">
-        <v>119</v>
+        <v>15097</v>
       </c>
       <c r="R16" s="37">
-        <v>351</v>
+        <v>43468</v>
       </c>
       <c r="S16" s="39">
-        <v>-233</v>
+        <v>-28372</v>
       </c>
       <c r="T16" s="41">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="U16" s="43">
-        <v>9</v>
+        <v>1135</v>
       </c>
       <c r="V16" s="45">
-        <v>-6</v>
+        <v>-686</v>
       </c>
       <c r="W16" s="47">
-        <v>4</v>
+        <v>534</v>
       </c>
       <c r="X16" s="49">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="Y16" s="51">
-        <v>3</v>
+        <v>353</v>
       </c>
       <c r="Z16" s="53">
-        <v>202</v>
+        <v>24882</v>
       </c>
       <c r="AA16" s="55">
-        <v>238</v>
+        <v>29342</v>
       </c>
       <c r="AB16" s="57">
-        <v>-37</v>
+        <v>-4460</v>
       </c>
       <c r="AC16" s="59">
-        <v>191</v>
+        <v>24038</v>
       </c>
       <c r="AD16" s="61">
-        <v>363</v>
+        <v>44802</v>
       </c>
       <c r="AE16" s="63">
-        <v>-172</v>
+        <v>-20763</v>
       </c>
       <c r="AF16" s="65">
         <v>0</v>
@@ -3122,16 +3122,16 @@
         <v>0</v>
       </c>
       <c r="AI16" s="71">
-        <v>61</v>
+        <v>7528</v>
       </c>
       <c r="AJ16" s="73">
-        <v>55</v>
+        <v>6946</v>
       </c>
       <c r="AK16" s="75">
-        <v>6</v>
+        <v>582</v>
       </c>
       <c r="AL16" s="77">
-        <v>4719</v>
+        <v>584883</v>
       </c>
     </row>
     <row r="17">
@@ -3139,94 +3139,94 @@
         <v>29</v>
       </c>
       <c r="B17" s="5">
-        <v>1432</v>
+        <v>189505</v>
       </c>
       <c r="C17" s="7">
-        <v>1663</v>
+        <v>221152</v>
       </c>
       <c r="D17" s="9">
-        <v>-230</v>
+        <v>-31647</v>
       </c>
       <c r="E17" s="11">
-        <v>2177</v>
+        <v>289886</v>
       </c>
       <c r="F17" s="13">
-        <v>2844</v>
+        <v>379435</v>
       </c>
       <c r="G17" s="15">
-        <v>-667</v>
+        <v>-89550</v>
       </c>
       <c r="H17" s="17">
-        <v>1769</v>
+        <v>237044</v>
       </c>
       <c r="I17" s="19">
-        <v>840</v>
+        <v>112036</v>
       </c>
       <c r="J17" s="21">
-        <v>928</v>
+        <v>125009</v>
       </c>
       <c r="K17" s="23">
-        <v>217</v>
+        <v>28877</v>
       </c>
       <c r="L17" s="25">
-        <v>184</v>
+        <v>24311</v>
       </c>
       <c r="M17" s="27">
-        <v>33</v>
+        <v>4566</v>
       </c>
       <c r="N17" s="29">
-        <v>162</v>
+        <v>21506</v>
       </c>
       <c r="O17" s="31">
-        <v>47</v>
+        <v>6364</v>
       </c>
       <c r="P17" s="33">
-        <v>115</v>
+        <v>15142</v>
       </c>
       <c r="Q17" s="35">
-        <v>380</v>
+        <v>51212</v>
       </c>
       <c r="R17" s="37">
-        <v>126</v>
+        <v>16799</v>
       </c>
       <c r="S17" s="39">
-        <v>254</v>
+        <v>34413</v>
       </c>
       <c r="T17" s="41">
-        <v>13</v>
+        <v>1718</v>
       </c>
       <c r="U17" s="43">
-        <v>4</v>
+        <v>481</v>
       </c>
       <c r="V17" s="45">
-        <v>9</v>
+        <v>1238</v>
       </c>
       <c r="W17" s="47">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="X17" s="49">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Y17" s="51">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="Z17" s="53">
-        <v>681</v>
+        <v>91092</v>
       </c>
       <c r="AA17" s="55">
-        <v>326</v>
+        <v>43433</v>
       </c>
       <c r="AB17" s="57">
-        <v>355</v>
+        <v>47660</v>
       </c>
       <c r="AC17" s="59">
-        <v>315</v>
+        <v>42511</v>
       </c>
       <c r="AD17" s="61">
-        <v>153</v>
+        <v>20588</v>
       </c>
       <c r="AE17" s="63">
-        <v>162</v>
+        <v>21922</v>
       </c>
       <c r="AF17" s="65">
         <v>0</v>
@@ -3238,16 +3238,16 @@
         <v>0</v>
       </c>
       <c r="AI17" s="71">
-        <v>34</v>
+        <v>4614</v>
       </c>
       <c r="AJ17" s="73">
-        <v>65</v>
+        <v>8426</v>
       </c>
       <c r="AK17" s="75">
-        <v>-31</v>
+        <v>-3812</v>
       </c>
       <c r="AL17" s="77">
-        <v>5412</v>
+        <v>721049</v>
       </c>
     </row>
     <row r="18">
@@ -3255,94 +3255,94 @@
         <v>30</v>
       </c>
       <c r="B18" s="5">
-        <v>5358</v>
+        <v>652103</v>
       </c>
       <c r="C18" s="7">
-        <v>4306</v>
+        <v>518001</v>
       </c>
       <c r="D18" s="9">
-        <v>1053</v>
+        <v>134103</v>
       </c>
       <c r="E18" s="11">
-        <v>3831</v>
+        <v>468875</v>
       </c>
       <c r="F18" s="13">
-        <v>3274</v>
+        <v>402415</v>
       </c>
       <c r="G18" s="15">
-        <v>557</v>
+        <v>66460</v>
       </c>
       <c r="H18" s="17">
-        <v>1664</v>
+        <v>202442</v>
       </c>
       <c r="I18" s="19">
-        <v>1785</v>
+        <v>223319</v>
       </c>
       <c r="J18" s="21">
-        <v>-120</v>
+        <v>-20877</v>
       </c>
       <c r="K18" s="23">
-        <v>350</v>
+        <v>42810</v>
       </c>
       <c r="L18" s="25">
-        <v>281</v>
+        <v>34583</v>
       </c>
       <c r="M18" s="27">
-        <v>69</v>
+        <v>8227</v>
       </c>
       <c r="N18" s="29">
-        <v>86</v>
+        <v>10458</v>
       </c>
       <c r="O18" s="31">
-        <v>114</v>
+        <v>14479</v>
       </c>
       <c r="P18" s="33">
-        <v>-28</v>
+        <v>-4022</v>
       </c>
       <c r="Q18" s="35">
-        <v>263</v>
+        <v>32155</v>
       </c>
       <c r="R18" s="37">
-        <v>367</v>
+        <v>46363</v>
       </c>
       <c r="S18" s="39">
-        <v>-105</v>
+        <v>-14207</v>
       </c>
       <c r="T18" s="41">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="U18" s="43">
-        <v>2</v>
+        <v>231</v>
       </c>
       <c r="V18" s="45">
-        <v>-1</v>
+        <v>-58</v>
       </c>
       <c r="W18" s="47">
-        <v>2</v>
+        <v>275</v>
       </c>
       <c r="X18" s="49">
-        <v>3</v>
+        <v>370</v>
       </c>
       <c r="Y18" s="51">
-        <v>-1</v>
+        <v>-96</v>
       </c>
       <c r="Z18" s="53">
-        <v>632</v>
+        <v>76627</v>
       </c>
       <c r="AA18" s="55">
-        <v>669</v>
+        <v>82755</v>
       </c>
       <c r="AB18" s="57">
-        <v>-37</v>
+        <v>-6128</v>
       </c>
       <c r="AC18" s="59">
-        <v>330</v>
+        <v>39944</v>
       </c>
       <c r="AD18" s="61">
-        <v>349</v>
+        <v>44537</v>
       </c>
       <c r="AE18" s="63">
-        <v>-19</v>
+        <v>-4593</v>
       </c>
       <c r="AF18" s="65">
         <v>0</v>
@@ -3354,16 +3354,16 @@
         <v>0</v>
       </c>
       <c r="AI18" s="71">
-        <v>109</v>
+        <v>13114</v>
       </c>
       <c r="AJ18" s="73">
-        <v>1598</v>
+        <v>192799</v>
       </c>
       <c r="AK18" s="75">
-        <v>-1489</v>
+        <v>-179686</v>
       </c>
       <c r="AL18" s="77">
-        <v>10963</v>
+        <v>1336534</v>
       </c>
     </row>
     <row r="19">
@@ -3371,94 +3371,94 @@
         <v>31</v>
       </c>
       <c r="B19" s="5">
-        <v>2243</v>
+        <v>308289</v>
       </c>
       <c r="C19" s="7">
-        <v>1303</v>
+        <v>181040</v>
       </c>
       <c r="D19" s="9">
-        <v>940</v>
+        <v>127250</v>
       </c>
       <c r="E19" s="11">
-        <v>2951</v>
+        <v>412113</v>
       </c>
       <c r="F19" s="13">
-        <v>3313</v>
+        <v>458969</v>
       </c>
       <c r="G19" s="15">
-        <v>-361</v>
+        <v>-46856</v>
       </c>
       <c r="H19" s="17">
-        <v>862</v>
+        <v>119743</v>
       </c>
       <c r="I19" s="19">
-        <v>1442</v>
+        <v>200381</v>
       </c>
       <c r="J19" s="21">
-        <v>-580</v>
+        <v>-80638</v>
       </c>
       <c r="K19" s="23">
-        <v>151</v>
+        <v>20842</v>
       </c>
       <c r="L19" s="25">
-        <v>193</v>
+        <v>26417</v>
       </c>
       <c r="M19" s="27">
-        <v>-42</v>
+        <v>-5576</v>
       </c>
       <c r="N19" s="29">
-        <v>62</v>
+        <v>8387</v>
       </c>
       <c r="O19" s="31">
-        <v>173</v>
+        <v>24118</v>
       </c>
       <c r="P19" s="33">
-        <v>-111</v>
+        <v>-15731</v>
       </c>
       <c r="Q19" s="35">
-        <v>137</v>
+        <v>19129</v>
       </c>
       <c r="R19" s="37">
-        <v>318</v>
+        <v>44071</v>
       </c>
       <c r="S19" s="39">
-        <v>-181</v>
+        <v>-24941</v>
       </c>
       <c r="T19" s="41">
-        <v>4</v>
+        <v>488</v>
       </c>
       <c r="U19" s="43">
-        <v>15</v>
+        <v>2153</v>
       </c>
       <c r="V19" s="45">
-        <v>-12</v>
+        <v>-1665</v>
       </c>
       <c r="W19" s="47">
-        <v>2</v>
+        <v>304</v>
       </c>
       <c r="X19" s="49">
-        <v>6</v>
+        <v>879</v>
       </c>
       <c r="Y19" s="51">
-        <v>-4</v>
+        <v>-575</v>
       </c>
       <c r="Z19" s="53">
-        <v>266</v>
+        <v>36869</v>
       </c>
       <c r="AA19" s="55">
-        <v>415</v>
+        <v>57909</v>
       </c>
       <c r="AB19" s="57">
-        <v>-149</v>
+        <v>-21040</v>
       </c>
       <c r="AC19" s="59">
-        <v>240</v>
+        <v>33725</v>
       </c>
       <c r="AD19" s="61">
-        <v>322</v>
+        <v>44835</v>
       </c>
       <c r="AE19" s="63">
-        <v>-82</v>
+        <v>-11110</v>
       </c>
       <c r="AF19" s="65">
         <v>0</v>
@@ -3470,16 +3470,16 @@
         <v>0</v>
       </c>
       <c r="AI19" s="71">
-        <v>55</v>
+        <v>7741</v>
       </c>
       <c r="AJ19" s="73">
-        <v>53</v>
+        <v>7497</v>
       </c>
       <c r="AK19" s="75">
-        <v>2</v>
+        <v>244</v>
       </c>
       <c r="AL19" s="77">
-        <v>6111</v>
+        <v>847887</v>
       </c>
     </row>
     <row r="20">
@@ -3487,94 +3487,94 @@
         <v>32</v>
       </c>
       <c r="B20" s="5">
-        <v>2656</v>
+        <v>298610</v>
       </c>
       <c r="C20" s="7">
-        <v>1560</v>
+        <v>174313</v>
       </c>
       <c r="D20" s="9">
-        <v>1096</v>
+        <v>124297</v>
       </c>
       <c r="E20" s="11">
-        <v>2414</v>
+        <v>274380</v>
       </c>
       <c r="F20" s="13">
-        <v>2882</v>
+        <v>330954</v>
       </c>
       <c r="G20" s="15">
-        <v>-468</v>
+        <v>-56575</v>
       </c>
       <c r="H20" s="17">
-        <v>1081</v>
+        <v>123891</v>
       </c>
       <c r="I20" s="19">
-        <v>1711</v>
+        <v>191750</v>
       </c>
       <c r="J20" s="21">
-        <v>-630</v>
+        <v>-67859</v>
       </c>
       <c r="K20" s="23">
-        <v>189</v>
+        <v>21685</v>
       </c>
       <c r="L20" s="25">
-        <v>225</v>
+        <v>25481</v>
       </c>
       <c r="M20" s="27">
-        <v>-36</v>
+        <v>-3796</v>
       </c>
       <c r="N20" s="29">
-        <v>104</v>
+        <v>12001</v>
       </c>
       <c r="O20" s="31">
-        <v>107</v>
+        <v>11976</v>
       </c>
       <c r="P20" s="33">
-        <v>-3</v>
+        <v>25</v>
       </c>
       <c r="Q20" s="35">
-        <v>138</v>
+        <v>15849</v>
       </c>
       <c r="R20" s="37">
-        <v>334</v>
+        <v>37212</v>
       </c>
       <c r="S20" s="39">
-        <v>-195</v>
+        <v>-21363</v>
       </c>
       <c r="T20" s="41">
-        <v>11</v>
+        <v>1293</v>
       </c>
       <c r="U20" s="43">
-        <v>4</v>
+        <v>486</v>
       </c>
       <c r="V20" s="45">
-        <v>6</v>
+        <v>806</v>
       </c>
       <c r="W20" s="47">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X20" s="49">
-        <v>4</v>
+        <v>445</v>
       </c>
       <c r="Y20" s="51">
-        <v>-4</v>
+        <v>-435</v>
       </c>
       <c r="Z20" s="53">
-        <v>486</v>
+        <v>55709</v>
       </c>
       <c r="AA20" s="55">
-        <v>492</v>
+        <v>55862</v>
       </c>
       <c r="AB20" s="57">
-        <v>-6</v>
+        <v>-153</v>
       </c>
       <c r="AC20" s="59">
-        <v>153</v>
+        <v>17343</v>
       </c>
       <c r="AD20" s="61">
-        <v>545</v>
+        <v>60286</v>
       </c>
       <c r="AE20" s="63">
-        <v>-393</v>
+        <v>-42943</v>
       </c>
       <c r="AF20" s="65">
         <v>0</v>
@@ -3586,16 +3586,16 @@
         <v>0</v>
       </c>
       <c r="AI20" s="71">
-        <v>47</v>
+        <v>5337</v>
       </c>
       <c r="AJ20" s="73">
-        <v>45</v>
+        <v>5200</v>
       </c>
       <c r="AK20" s="75">
-        <v>2</v>
+        <v>136</v>
       </c>
       <c r="AL20" s="77">
-        <v>6198</v>
+        <v>702217</v>
       </c>
     </row>
     <row r="21">
@@ -3603,94 +3603,94 @@
         <v>33</v>
       </c>
       <c r="B21" s="5">
-        <v>870</v>
+        <v>89966</v>
       </c>
       <c r="C21" s="7">
-        <v>810</v>
+        <v>82504</v>
       </c>
       <c r="D21" s="9">
-        <v>60</v>
+        <v>7463</v>
       </c>
       <c r="E21" s="11">
-        <v>1702</v>
+        <v>176020</v>
       </c>
       <c r="F21" s="13">
-        <v>2128</v>
+        <v>221583</v>
       </c>
       <c r="G21" s="15">
-        <v>-426</v>
+        <v>-45562</v>
       </c>
       <c r="H21" s="17">
-        <v>836</v>
+        <v>86488</v>
       </c>
       <c r="I21" s="19">
-        <v>469</v>
+        <v>48164</v>
       </c>
       <c r="J21" s="21">
-        <v>368</v>
+        <v>38324</v>
       </c>
       <c r="K21" s="23">
-        <v>102</v>
+        <v>10565</v>
       </c>
       <c r="L21" s="25">
-        <v>99</v>
+        <v>10147</v>
       </c>
       <c r="M21" s="27">
-        <v>3</v>
+        <v>418</v>
       </c>
       <c r="N21" s="29">
-        <v>112</v>
+        <v>11646</v>
       </c>
       <c r="O21" s="31">
-        <v>44</v>
+        <v>4521</v>
       </c>
       <c r="P21" s="33">
-        <v>68</v>
+        <v>7125</v>
       </c>
       <c r="Q21" s="35">
-        <v>108</v>
+        <v>11299</v>
       </c>
       <c r="R21" s="37">
-        <v>85</v>
+        <v>8739</v>
       </c>
       <c r="S21" s="39">
-        <v>23</v>
+        <v>2561</v>
       </c>
       <c r="T21" s="41">
         <v>0</v>
       </c>
       <c r="U21" s="43">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="V21" s="45">
-        <v>-1</v>
+        <v>-82</v>
       </c>
       <c r="W21" s="47">
-        <v>2</v>
+        <v>219</v>
       </c>
       <c r="X21" s="49">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="Y21" s="51">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="Z21" s="53">
-        <v>441</v>
+        <v>45546</v>
       </c>
       <c r="AA21" s="55">
-        <v>118</v>
+        <v>12080</v>
       </c>
       <c r="AB21" s="57">
-        <v>323</v>
+        <v>33466</v>
       </c>
       <c r="AC21" s="59">
-        <v>71</v>
+        <v>7213</v>
       </c>
       <c r="AD21" s="61">
-        <v>120</v>
+        <v>12471</v>
       </c>
       <c r="AE21" s="63">
-        <v>-49</v>
+        <v>-5258</v>
       </c>
       <c r="AF21" s="65">
         <v>0</v>
@@ -3702,16 +3702,16 @@
         <v>0</v>
       </c>
       <c r="AI21" s="71">
-        <v>21</v>
+        <v>2126</v>
       </c>
       <c r="AJ21" s="73">
-        <v>23</v>
+        <v>2350</v>
       </c>
       <c r="AK21" s="75">
-        <v>-2</v>
+        <v>-225</v>
       </c>
       <c r="AL21" s="77">
-        <v>3429</v>
+        <v>354600</v>
       </c>
     </row>
     <row r="22">
@@ -3719,94 +3719,94 @@
         <v>34</v>
       </c>
       <c r="B22" s="5">
-        <v>1611</v>
+        <v>170537</v>
       </c>
       <c r="C22" s="7">
-        <v>1106</v>
+        <v>115797</v>
       </c>
       <c r="D22" s="9">
-        <v>505</v>
+        <v>54740</v>
       </c>
       <c r="E22" s="11">
-        <v>2905</v>
+        <v>303426</v>
       </c>
       <c r="F22" s="13">
-        <v>3854</v>
+        <v>404923</v>
       </c>
       <c r="G22" s="15">
-        <v>-949</v>
+        <v>-101497</v>
       </c>
       <c r="H22" s="17">
-        <v>1577</v>
+        <v>165296</v>
       </c>
       <c r="I22" s="19">
-        <v>1114</v>
+        <v>116549</v>
       </c>
       <c r="J22" s="21">
-        <v>463</v>
+        <v>48748</v>
       </c>
       <c r="K22" s="23">
-        <v>205</v>
+        <v>21235</v>
       </c>
       <c r="L22" s="25">
-        <v>248</v>
+        <v>26181</v>
       </c>
       <c r="M22" s="27">
-        <v>-44</v>
+        <v>-4946</v>
       </c>
       <c r="N22" s="29">
-        <v>116</v>
+        <v>12173</v>
       </c>
       <c r="O22" s="31">
-        <v>108</v>
+        <v>11397</v>
       </c>
       <c r="P22" s="33">
-        <v>7</v>
+        <v>776</v>
       </c>
       <c r="Q22" s="35">
-        <v>346</v>
+        <v>36071</v>
       </c>
       <c r="R22" s="37">
-        <v>144</v>
+        <v>15069</v>
       </c>
       <c r="S22" s="39">
-        <v>203</v>
+        <v>21002</v>
       </c>
       <c r="T22" s="41">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="U22" s="43">
-        <v>3</v>
+        <v>344</v>
       </c>
       <c r="V22" s="45">
-        <v>-2</v>
+        <v>-249</v>
       </c>
       <c r="W22" s="47">
-        <v>20</v>
+        <v>2164</v>
       </c>
       <c r="X22" s="49">
-        <v>5</v>
+        <v>481</v>
       </c>
       <c r="Y22" s="51">
-        <v>16</v>
+        <v>1683</v>
       </c>
       <c r="Z22" s="53">
-        <v>704</v>
+        <v>74011</v>
       </c>
       <c r="AA22" s="55">
-        <v>328</v>
+        <v>33880</v>
       </c>
       <c r="AB22" s="57">
-        <v>376</v>
+        <v>40130</v>
       </c>
       <c r="AC22" s="59">
-        <v>185</v>
+        <v>19548</v>
       </c>
       <c r="AD22" s="61">
-        <v>277</v>
+        <v>29197</v>
       </c>
       <c r="AE22" s="63">
-        <v>-93</v>
+        <v>-9649</v>
       </c>
       <c r="AF22" s="65">
         <v>0</v>
@@ -3818,16 +3818,16 @@
         <v>0</v>
       </c>
       <c r="AI22" s="71">
-        <v>53</v>
+        <v>5515</v>
       </c>
       <c r="AJ22" s="73">
-        <v>72</v>
+        <v>7507</v>
       </c>
       <c r="AK22" s="75">
-        <v>-19</v>
+        <v>-1991</v>
       </c>
       <c r="AL22" s="77">
-        <v>6146</v>
+        <v>644775</v>
       </c>
     </row>
     <row r="23">
@@ -3835,94 +3835,94 @@
         <v>35</v>
       </c>
       <c r="B23" s="5">
-        <v>1017</v>
+        <v>98487</v>
       </c>
       <c r="C23" s="7">
-        <v>1231</v>
+        <v>124041</v>
       </c>
       <c r="D23" s="9">
-        <v>-214</v>
+        <v>-25555</v>
       </c>
       <c r="E23" s="11">
-        <v>4607</v>
+        <v>447829</v>
       </c>
       <c r="F23" s="13">
-        <v>3186</v>
+        <v>315709</v>
       </c>
       <c r="G23" s="15">
-        <v>1421</v>
+        <v>132120</v>
       </c>
       <c r="H23" s="17">
-        <v>1519</v>
+        <v>152768</v>
       </c>
       <c r="I23" s="19">
-        <v>2712</v>
+        <v>258050</v>
       </c>
       <c r="J23" s="21">
-        <v>-1193</v>
+        <v>-105282</v>
       </c>
       <c r="K23" s="23">
-        <v>192</v>
+        <v>18798</v>
       </c>
       <c r="L23" s="25">
-        <v>417</v>
+        <v>40115</v>
       </c>
       <c r="M23" s="27">
-        <v>-224</v>
+        <v>-21317</v>
       </c>
       <c r="N23" s="29">
-        <v>132</v>
+        <v>13530</v>
       </c>
       <c r="O23" s="31">
-        <v>106</v>
+        <v>10606</v>
       </c>
       <c r="P23" s="33">
-        <v>25</v>
+        <v>2924</v>
       </c>
       <c r="Q23" s="35">
-        <v>310</v>
+        <v>31788</v>
       </c>
       <c r="R23" s="37">
-        <v>630</v>
+        <v>59991</v>
       </c>
       <c r="S23" s="39">
-        <v>-320</v>
+        <v>-28203</v>
       </c>
       <c r="T23" s="41">
-        <v>2</v>
+        <v>165</v>
       </c>
       <c r="U23" s="43">
-        <v>7</v>
+        <v>657</v>
       </c>
       <c r="V23" s="45">
-        <v>-5</v>
+        <v>-492</v>
       </c>
       <c r="W23" s="47">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X23" s="49">
-        <v>13</v>
+        <v>1236</v>
       </c>
       <c r="Y23" s="51">
-        <v>-13</v>
+        <v>-1221</v>
       </c>
       <c r="Z23" s="53">
-        <v>817</v>
+        <v>82109</v>
       </c>
       <c r="AA23" s="55">
-        <v>519</v>
+        <v>51302</v>
       </c>
       <c r="AB23" s="57">
-        <v>298</v>
+        <v>30806</v>
       </c>
       <c r="AC23" s="59">
-        <v>66</v>
+        <v>6363</v>
       </c>
       <c r="AD23" s="61">
-        <v>1020</v>
+        <v>94143</v>
       </c>
       <c r="AE23" s="63">
-        <v>-954</v>
+        <v>-87780</v>
       </c>
       <c r="AF23" s="65">
         <v>0</v>
@@ -3934,16 +3934,16 @@
         <v>0</v>
       </c>
       <c r="AI23" s="71">
-        <v>54</v>
+        <v>5205</v>
       </c>
       <c r="AJ23" s="73">
-        <v>69</v>
+        <v>6489</v>
       </c>
       <c r="AK23" s="75">
-        <v>-15</v>
+        <v>-1284</v>
       </c>
       <c r="AL23" s="77">
-        <v>7198</v>
+        <v>704289</v>
       </c>
     </row>
     <row r="24">
@@ -3951,94 +3951,94 @@
         <v>36</v>
       </c>
       <c r="B24" s="5">
-        <v>737</v>
+        <v>82398</v>
       </c>
       <c r="C24" s="7">
-        <v>404</v>
+        <v>45432</v>
       </c>
       <c r="D24" s="9">
-        <v>333</v>
+        <v>36966</v>
       </c>
       <c r="E24" s="11">
-        <v>3071</v>
+        <v>344433</v>
       </c>
       <c r="F24" s="13">
-        <v>3731</v>
+        <v>418773</v>
       </c>
       <c r="G24" s="15">
-        <v>-659</v>
+        <v>-74340</v>
       </c>
       <c r="H24" s="17">
-        <v>920</v>
+        <v>103405</v>
       </c>
       <c r="I24" s="19">
-        <v>574</v>
+        <v>63746</v>
       </c>
       <c r="J24" s="21">
-        <v>347</v>
+        <v>39659</v>
       </c>
       <c r="K24" s="23">
-        <v>68</v>
+        <v>7682</v>
       </c>
       <c r="L24" s="25">
-        <v>79</v>
+        <v>8765</v>
       </c>
       <c r="M24" s="27">
-        <v>-11</v>
+        <v>-1083</v>
       </c>
       <c r="N24" s="29">
-        <v>80</v>
+        <v>8999</v>
       </c>
       <c r="O24" s="31">
-        <v>48</v>
+        <v>5392</v>
       </c>
       <c r="P24" s="33">
-        <v>32</v>
+        <v>3607</v>
       </c>
       <c r="Q24" s="35">
-        <v>93</v>
+        <v>10462</v>
       </c>
       <c r="R24" s="37">
-        <v>98</v>
+        <v>10976</v>
       </c>
       <c r="S24" s="39">
-        <v>-5</v>
+        <v>-514</v>
       </c>
       <c r="T24" s="41">
-        <v>6</v>
+        <v>615</v>
       </c>
       <c r="U24" s="43">
+        <v>179</v>
+      </c>
+      <c r="V24" s="45">
+        <v>435</v>
+      </c>
+      <c r="W24" s="47">
         <v>2</v>
       </c>
-      <c r="V24" s="45">
-        <v>4</v>
-      </c>
-      <c r="W24" s="47">
-        <v>0</v>
-      </c>
       <c r="X24" s="49">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="Y24" s="51">
-        <v>-3</v>
+        <v>-343</v>
       </c>
       <c r="Z24" s="53">
-        <v>605</v>
+        <v>68076</v>
       </c>
       <c r="AA24" s="55">
-        <v>156</v>
+        <v>17223</v>
       </c>
       <c r="AB24" s="57">
-        <v>449</v>
+        <v>50853</v>
       </c>
       <c r="AC24" s="59">
-        <v>68</v>
+        <v>7570</v>
       </c>
       <c r="AD24" s="61">
-        <v>188</v>
+        <v>20866</v>
       </c>
       <c r="AE24" s="63">
-        <v>-120</v>
+        <v>-13296</v>
       </c>
       <c r="AF24" s="65">
         <v>0</v>
@@ -4050,16 +4050,16 @@
         <v>0</v>
       </c>
       <c r="AI24" s="71">
-        <v>26</v>
+        <v>2896</v>
       </c>
       <c r="AJ24" s="73">
-        <v>47</v>
+        <v>5182</v>
       </c>
       <c r="AK24" s="75">
-        <v>-21</v>
+        <v>-2285</v>
       </c>
       <c r="AL24" s="77">
-        <v>4754</v>
+        <v>533132</v>
       </c>
     </row>
     <row r="25">
@@ -4067,94 +4067,94 @@
         <v>37</v>
       </c>
       <c r="B25" s="5">
-        <v>552</v>
+        <v>60293</v>
       </c>
       <c r="C25" s="7">
-        <v>456</v>
+        <v>49769</v>
       </c>
       <c r="D25" s="9">
-        <v>97</v>
+        <v>10524</v>
       </c>
       <c r="E25" s="11">
-        <v>7224</v>
+        <v>779954</v>
       </c>
       <c r="F25" s="13">
-        <v>7902</v>
+        <v>857675</v>
       </c>
       <c r="G25" s="15">
-        <v>-679</v>
+        <v>-77721</v>
       </c>
       <c r="H25" s="17">
-        <v>1485</v>
+        <v>161852</v>
       </c>
       <c r="I25" s="19">
-        <v>877</v>
+        <v>92021</v>
       </c>
       <c r="J25" s="21">
-        <v>608</v>
+        <v>69831</v>
       </c>
       <c r="K25" s="23">
-        <v>167</v>
+        <v>18344</v>
       </c>
       <c r="L25" s="25">
-        <v>197</v>
+        <v>20702</v>
       </c>
       <c r="M25" s="27">
-        <v>-30</v>
+        <v>-2358</v>
       </c>
       <c r="N25" s="29">
-        <v>110</v>
+        <v>11901</v>
       </c>
       <c r="O25" s="31">
-        <v>31</v>
+        <v>3352</v>
       </c>
       <c r="P25" s="33">
-        <v>80</v>
+        <v>8550</v>
       </c>
       <c r="Q25" s="35">
-        <v>193</v>
+        <v>21214</v>
       </c>
       <c r="R25" s="37">
-        <v>160</v>
+        <v>17025</v>
       </c>
       <c r="S25" s="39">
-        <v>32</v>
+        <v>4189</v>
       </c>
       <c r="T25" s="41">
-        <v>8</v>
+        <v>789</v>
       </c>
       <c r="U25" s="43">
         <v>0</v>
       </c>
       <c r="V25" s="45">
-        <v>8</v>
+        <v>789</v>
       </c>
       <c r="W25" s="47">
-        <v>8</v>
+        <v>883</v>
       </c>
       <c r="X25" s="49">
-        <v>25</v>
+        <v>2618</v>
       </c>
       <c r="Y25" s="51">
-        <v>-17</v>
+        <v>-1735</v>
       </c>
       <c r="Z25" s="53">
-        <v>902</v>
+        <v>98312</v>
       </c>
       <c r="AA25" s="55">
-        <v>74</v>
+        <v>7716</v>
       </c>
       <c r="AB25" s="57">
-        <v>828</v>
+        <v>90597</v>
       </c>
       <c r="AC25" s="59">
-        <v>97</v>
+        <v>10409</v>
       </c>
       <c r="AD25" s="61">
-        <v>390</v>
+        <v>40609</v>
       </c>
       <c r="AE25" s="63">
-        <v>-293</v>
+        <v>-30200</v>
       </c>
       <c r="AF25" s="65">
         <v>0</v>
@@ -4166,16 +4166,16 @@
         <v>0</v>
       </c>
       <c r="AI25" s="71">
-        <v>40</v>
+        <v>4421</v>
       </c>
       <c r="AJ25" s="73">
-        <v>66</v>
+        <v>7054</v>
       </c>
       <c r="AK25" s="75">
-        <v>-26</v>
+        <v>-2634</v>
       </c>
       <c r="AL25" s="77">
-        <v>9301</v>
+        <v>1006520</v>
       </c>
     </row>
     <row r="26">
@@ -4183,94 +4183,94 @@
         <v>38</v>
       </c>
       <c r="B26" s="6">
-        <v>433</v>
+        <v>48846</v>
       </c>
       <c r="C26" s="8">
-        <v>2694</v>
+        <v>286316</v>
       </c>
       <c r="D26" s="10">
-        <v>-2261</v>
+        <v>-237470</v>
       </c>
       <c r="E26" s="12">
-        <v>23872</v>
+        <v>2609396</v>
       </c>
       <c r="F26" s="14">
-        <v>23792</v>
+        <v>2609905</v>
       </c>
       <c r="G26" s="16">
-        <v>80</v>
+        <v>-509</v>
       </c>
       <c r="H26" s="18">
-        <v>2947</v>
+        <v>319265</v>
       </c>
       <c r="I26" s="20">
-        <v>764</v>
+        <v>81525</v>
       </c>
       <c r="J26" s="22">
-        <v>2183</v>
+        <v>237740</v>
       </c>
       <c r="K26" s="24">
-        <v>179</v>
+        <v>19547</v>
       </c>
       <c r="L26" s="26">
-        <v>212</v>
+        <v>22841</v>
       </c>
       <c r="M26" s="28">
-        <v>-33</v>
+        <v>-3295</v>
       </c>
       <c r="N26" s="30">
-        <v>316</v>
+        <v>34273</v>
       </c>
       <c r="O26" s="32">
-        <v>19</v>
+        <v>2045</v>
       </c>
       <c r="P26" s="34">
-        <v>296</v>
+        <v>32228</v>
       </c>
       <c r="Q26" s="36">
-        <v>531</v>
+        <v>57310</v>
       </c>
       <c r="R26" s="38">
-        <v>75</v>
+        <v>7917</v>
       </c>
       <c r="S26" s="40">
-        <v>456</v>
+        <v>49394</v>
       </c>
       <c r="T26" s="42">
-        <v>21</v>
+        <v>2360</v>
       </c>
       <c r="U26" s="44">
-        <v>3</v>
+        <v>353</v>
       </c>
       <c r="V26" s="46">
-        <v>18</v>
+        <v>2008</v>
       </c>
       <c r="W26" s="48">
-        <v>16</v>
+        <v>1635</v>
       </c>
       <c r="X26" s="50">
-        <v>34</v>
+        <v>3565</v>
       </c>
       <c r="Y26" s="52">
-        <v>-19</v>
+        <v>-1929</v>
       </c>
       <c r="Z26" s="54">
-        <v>1543</v>
+        <v>166439</v>
       </c>
       <c r="AA26" s="56">
-        <v>31</v>
+        <v>3153</v>
       </c>
       <c r="AB26" s="58">
-        <v>1512</v>
+        <v>163287</v>
       </c>
       <c r="AC26" s="60">
-        <v>341</v>
+        <v>37700</v>
       </c>
       <c r="AD26" s="62">
-        <v>388</v>
+        <v>41651</v>
       </c>
       <c r="AE26" s="64">
-        <v>-47</v>
+        <v>-3951</v>
       </c>
       <c r="AF26" s="66">
         <v>0</v>
@@ -4282,16 +4282,16 @@
         <v>0</v>
       </c>
       <c r="AI26" s="72">
-        <v>148</v>
+        <v>16444</v>
       </c>
       <c r="AJ26" s="74">
-        <v>150</v>
+        <v>16205</v>
       </c>
       <c r="AK26" s="76">
-        <v>-2</v>
+        <v>238</v>
       </c>
       <c r="AL26" s="78">
-        <v>27400</v>
+        <v>2993951</v>
       </c>
     </row>
   </sheetData>
